--- a/data/trans_dic/P7_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con más de 1 persona</t>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>90,33%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>89,5%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>90,27%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>90,31%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>89,7%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>88,54%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88,92%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>87,21%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>88,22%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>91,03%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>91,46%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>91,43%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>90,35%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>91,3%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>91,13%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>90,02%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>90,98%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>88,74%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>88,85%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,13; 93,75</t>
+          <t>89,17; 94,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,48; 94,65</t>
+          <t>90,37; 94,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,31; 94,86</t>
+          <t>90,32; 94,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,5; 93,77</t>
+          <t>88,89; 93,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,14; 92,42</t>
+          <t>90,75; 95,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,19; 92,3</t>
+          <t>87,6; 92,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,57; 92,39</t>
+          <t>87,22; 91,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,25; 91,66</t>
+          <t>87,76; 92,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,57; 91,01</t>
+          <t>87,26; 92,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>83,69; 90,23</t>
+          <t>87,06; 91,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>89,41; 92,53</t>
+          <t>85,97; 90,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,69; 92,96</t>
+          <t>86,06; 91,91</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,85; 92,82</t>
+          <t>83,45; 89,96</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,71; 91,87</t>
+          <t>85,28; 90,42</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>86,71; 90,88</t>
+          <t>89,35; 92,53</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>89,47; 92,71</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>89,36; 92,47</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>88,22; 91,5</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>88,92; 92,73</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>86,51; 90,74</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>86,97; 90,54</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>93,23%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>91,37%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>91,71%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>89,72%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>93,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>89,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>93,4%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>91,39%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>91,67%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>93,61%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>93,4%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>92,16%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>92,36%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>92,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>92,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>90,29%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>90,66%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>88,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>93,47%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>92,78%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>91,88%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>91,85%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>92,65%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>91,94%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>91,91%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>90,01%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>92,21%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>88,87%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,89; 95,36</t>
+          <t>90,96; 95,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,87; 95,5</t>
+          <t>89,58; 95,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,44; 93,71</t>
+          <t>88,05; 93,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,71; 94,02</t>
+          <t>89,0; 93,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,04; 96,1</t>
+          <t>84,16; 92,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,18; 95,25</t>
+          <t>90,36; 96,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,49; 94,16</t>
+          <t>84,35; 92,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,81; 94,49</t>
+          <t>90,54; 95,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,22; 94,23</t>
+          <t>89,32; 94,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,31; 94,73</t>
+          <t>90,04; 94,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,51; 94,92</t>
+          <t>89,24; 94,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>90,93; 94,53</t>
+          <t>86,76; 92,93</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>89,54; 93,37</t>
+          <t>83,47; 94,64</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>89,83; 93,39</t>
+          <t>83,16; 92,25</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>88,92; 94,68</t>
+          <t>91,64; 94,92</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>90,75; 94,37</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>89,96; 93,68</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>89,94; 93,41</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>86,81; 92,03</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>88,79; 94,69</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>85,53; 91,76</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>90,91%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>96,18%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>97,13%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>93,14%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>93,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>90,83%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91,09%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>94,05%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>95,49%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>91,82%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>90,39%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>95,12%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>91,75%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>90,52%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>91,0%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,17; 95,69</t>
+          <t>86,43; 95,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,54; 97,0</t>
+          <t>87,93; 96,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,27; 94,14</t>
+          <t>85,14; 94,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,09; 94,2</t>
+          <t>84,15; 93,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>83,61; 95,51</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>91,6; 98,44</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,8; 99,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,68; 96,62</t>
+          <t>91,74; 98,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,5; 94,77</t>
+          <t>92,1; 99,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>87,71; 96,27</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>85,12; 94,9</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>81,65; 96,09</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>90,46; 96,2</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>92,49; 97,63</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>87,76; 94,37</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>86,86; 93,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>90,73; 96,41</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>91,8; 97,16</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>88,53; 94,55</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>86,74; 93,33</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>85,9; 94,77</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>91,54%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>91,11%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89,39%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>92,16%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>91,8%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>91,1%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>91,06%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>90,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>89,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>87,96%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>88,32%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>92,35%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>92,45%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>91,65%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>90,94%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>92,28%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>91,52%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>90,82%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>90,6%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>89,53%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>88,85%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,96; 93,98</t>
+          <t>90,82; 94,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,47; 94,54</t>
+          <t>91,27; 94,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,57; 93,49</t>
+          <t>90,02; 93,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,99; 93,04</t>
+          <t>89,88; 93,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,03; 92,82</t>
+          <t>88,97; 93,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,73; 93,61</t>
+          <t>89,16; 92,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,16; 93,2</t>
+          <t>87,33; 91,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,51; 92,58</t>
+          <t>90,68; 93,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,61; 91,72</t>
+          <t>90,0; 93,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84,51; 90,36</t>
+          <t>89,58; 92,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,24; 93,42</t>
+          <t>88,66; 91,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,25; 93,56</t>
+          <t>87,54; 91,61</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,5; 92,62</t>
+          <t>85,1; 90,61</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,9; 92,05</t>
+          <t>85,93; 90,28</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>87,48; 91,01</t>
+          <t>91,33; 93,43</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>91,0; 93,3</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>90,3; 92,64</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>89,56; 91,84</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>89,08; 92,02</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>87,42; 91,07</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>86,96; 90,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>627.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>617.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>725.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>632.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>752.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>769.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>785.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>795.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1341.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1162.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1379.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1386.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>1059.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>1400.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1381.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1506353</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1528094</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1521917</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1503459</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1524302</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>206851</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>204495</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1616766</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1630614</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1637560</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1610195</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1606192</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>207282</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>208092</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3123119</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3158708</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3159476</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3113654</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>3130494</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>414133</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>412586</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1462461; 1542225</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1491392; 1560024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1479584; 1552578</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1457820; 1538560</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1483564; 1557869</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>200609; 211730</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>199288; 209775</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1571853; 1649983</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1578911; 1669575</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1592149; 1674403</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1563495; 1648126</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1554592; 1660221</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>198335; 213806</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>201165; 213283</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3065557; 3174591</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3095204; 3207314</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3097980; 3206020</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3051129; 3164814</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>3059596; 3190733</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>403744; 423450</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>403873; 420425</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>515.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>589.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>591.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>471.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1104.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>903.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1074.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1063.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>854.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1297175</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1281040</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1260050</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1266974</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1238156</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67671</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65062</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1316693</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1279098</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1271421</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1273155</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1255043</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>59440</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>59142</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2613868</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2560136</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2531470</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2540129</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2493200</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>127111</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>124203</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1261238; 1322128</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1230895; 1310917</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1214316; 1290953</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1229479; 1297973</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1161398; 1279462</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>65323; 69434</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61632; 67495</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1276500; 1343022</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1240691; 1308858</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1237358; 1300584</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1233345; 1300017</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1206037; 1291822</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>54728; 62049</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>55460; 61526</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2562542; 2654263</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2507450; 2607465</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2477058; 2579491</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2485618; 2581436</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>2404717; 2549370</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>122398; 130527</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>119534; 128253</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>388867</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>395249</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>382784</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>381490</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>381282</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>396156</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>398696</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>380922</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>374109</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>375204</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>785022</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>793944</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>763706</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>755599</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>756487</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>365457; 404680</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>371791; 409183</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>359992; 399467</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>355801; 396462</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>350695; 400593</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>377882; 405396</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>379360; 408456</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>359257; 394304</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>350604; 390878</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>336323; 395772</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>757309; 804764</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>766270; 810969</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>736881; 787038</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>724016; 779016</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>714085; 787797</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1249.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1067.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1238.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1216.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>831.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>807.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1484.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1242.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1508.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1518.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1168.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1004.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>996.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2733.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2309.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2746.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2734.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2118.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1835.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>1803.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3192395</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3204382</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3164750</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3151923</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3143741</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>274522</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>269556</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3329615</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3308407</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3289902</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3257459</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3236439</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>266722</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>267234</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6522010</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6512789</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>6454652</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>6409382</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>6380180</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>541244</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>536790</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3132865; 3243433</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3146144; 3252256</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3096906; 3209458</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3095850; 3206790</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3055219; 3202362</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>268648; 279788</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>263343; 275319</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3276152; 3378306</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3249156; 3363448</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3236252; 3338485</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3203024; 3309265</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3158704; 3305619</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>258047; 274756</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>259996; 273169</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6450238; 6598447</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6422415; 6584740</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6368396; 6533707</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6320033; 6481443</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>6273489; 6480160</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>528509; 550549</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>525331; 544754</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
